--- a/Data/DietaryReports.xlsx
+++ b/Data/DietaryReports.xlsx
@@ -402,7 +402,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Followup</t>
+          <t>followup</t>
         </is>
       </c>
       <c r="C2">
@@ -429,7 +429,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Baseline</t>
+          <t>baseline</t>
         </is>
       </c>
       <c r="C3">
@@ -456,7 +456,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Followup</t>
+          <t>followup</t>
         </is>
       </c>
       <c r="C4">
@@ -483,7 +483,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Baseline</t>
+          <t>baseline</t>
         </is>
       </c>
       <c r="C5">
@@ -510,7 +510,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Followup</t>
+          <t>followup</t>
         </is>
       </c>
       <c r="C6">
@@ -537,7 +537,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Followup</t>
+          <t>followup</t>
         </is>
       </c>
       <c r="C7">
@@ -564,7 +564,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Baseline</t>
+          <t>baseline</t>
         </is>
       </c>
       <c r="C8">
@@ -591,7 +591,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Followup</t>
+          <t>followup</t>
         </is>
       </c>
       <c r="C9">
@@ -618,7 +618,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Baseline</t>
+          <t>baseline</t>
         </is>
       </c>
       <c r="C10">
@@ -645,7 +645,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Baseline</t>
+          <t>baseline</t>
         </is>
       </c>
       <c r="C11">
@@ -672,7 +672,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Followup</t>
+          <t>followup</t>
         </is>
       </c>
       <c r="C12">
@@ -699,7 +699,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Baseline</t>
+          <t>baseline</t>
         </is>
       </c>
       <c r="C13">
@@ -726,7 +726,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Followup</t>
+          <t>followup</t>
         </is>
       </c>
       <c r="C14">
@@ -753,7 +753,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Baseline</t>
+          <t>baseline</t>
         </is>
       </c>
       <c r="C15">
@@ -780,7 +780,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Followup</t>
+          <t>followup</t>
         </is>
       </c>
       <c r="C16">
@@ -807,7 +807,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Baseline</t>
+          <t>baseline</t>
         </is>
       </c>
       <c r="C17">
@@ -834,7 +834,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Followup</t>
+          <t>followup</t>
         </is>
       </c>
       <c r="C18">
@@ -861,7 +861,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Baseline</t>
+          <t>baseline</t>
         </is>
       </c>
       <c r="C19">
@@ -888,7 +888,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Followup</t>
+          <t>followup</t>
         </is>
       </c>
       <c r="C20">
@@ -915,7 +915,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Baseline</t>
+          <t>baseline</t>
         </is>
       </c>
       <c r="C21">
@@ -942,7 +942,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Followup</t>
+          <t>followup</t>
         </is>
       </c>
       <c r="C22">
@@ -969,7 +969,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Baseline</t>
+          <t>baseline</t>
         </is>
       </c>
       <c r="C23">
@@ -996,7 +996,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Followup</t>
+          <t>followup</t>
         </is>
       </c>
       <c r="C24">
@@ -1023,7 +1023,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Baseline</t>
+          <t>baseline</t>
         </is>
       </c>
       <c r="C25">
@@ -1050,7 +1050,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Followup</t>
+          <t>followup</t>
         </is>
       </c>
       <c r="C26">
@@ -1077,7 +1077,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Baseline</t>
+          <t>baseline</t>
         </is>
       </c>
       <c r="C27">
@@ -1104,7 +1104,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Followup</t>
+          <t>followup</t>
         </is>
       </c>
       <c r="C28">
@@ -1131,7 +1131,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Baseline</t>
+          <t>baseline</t>
         </is>
       </c>
       <c r="C29">
@@ -1158,7 +1158,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Followup</t>
+          <t>followup</t>
         </is>
       </c>
       <c r="C30">
@@ -1185,7 +1185,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Baseline</t>
+          <t>baseline</t>
         </is>
       </c>
       <c r="C31">
@@ -1212,7 +1212,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Followup</t>
+          <t>followup</t>
         </is>
       </c>
       <c r="C32">
@@ -1239,7 +1239,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Baseline</t>
+          <t>baseline</t>
         </is>
       </c>
       <c r="C33">
@@ -1266,7 +1266,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Followup</t>
+          <t>followup</t>
         </is>
       </c>
       <c r="C34">
@@ -1293,7 +1293,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Baseline</t>
+          <t>baseline</t>
         </is>
       </c>
       <c r="C35">
@@ -1320,7 +1320,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Followup</t>
+          <t>followup</t>
         </is>
       </c>
       <c r="C36">
@@ -1347,7 +1347,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Baseline</t>
+          <t>baseline</t>
         </is>
       </c>
       <c r="C37">
@@ -1374,7 +1374,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Followup</t>
+          <t>followup</t>
         </is>
       </c>
       <c r="C38">
@@ -1401,7 +1401,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Baseline</t>
+          <t>baseline</t>
         </is>
       </c>
       <c r="C39">
@@ -1428,7 +1428,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Followup</t>
+          <t>followup</t>
         </is>
       </c>
       <c r="C40">
@@ -1455,7 +1455,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Baseline</t>
+          <t>baseline</t>
         </is>
       </c>
       <c r="C41">
@@ -1482,7 +1482,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Followup</t>
+          <t>followup</t>
         </is>
       </c>
       <c r="C42">
@@ -1509,7 +1509,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Followup</t>
+          <t>followup</t>
         </is>
       </c>
       <c r="C43">
@@ -1536,7 +1536,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Baseline</t>
+          <t>baseline</t>
         </is>
       </c>
       <c r="C44">
@@ -1563,7 +1563,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Followup</t>
+          <t>followup</t>
         </is>
       </c>
       <c r="C45">
@@ -1590,7 +1590,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Baseline</t>
+          <t>baseline</t>
         </is>
       </c>
       <c r="C46">
@@ -1617,7 +1617,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Followup</t>
+          <t>followup</t>
         </is>
       </c>
       <c r="C47">
@@ -1644,7 +1644,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Baseline</t>
+          <t>baseline</t>
         </is>
       </c>
       <c r="C48">
@@ -1671,7 +1671,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Followup</t>
+          <t>followup</t>
         </is>
       </c>
       <c r="C49">
@@ -1698,7 +1698,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Baseline</t>
+          <t>baseline</t>
         </is>
       </c>
       <c r="C50">
@@ -1725,7 +1725,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Baseline</t>
+          <t>baseline</t>
         </is>
       </c>
       <c r="C51">
@@ -1752,7 +1752,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Baseline</t>
+          <t>baseline</t>
         </is>
       </c>
       <c r="C52">
@@ -1779,7 +1779,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Followup</t>
+          <t>followup</t>
         </is>
       </c>
       <c r="C53">
@@ -1806,7 +1806,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Baseline</t>
+          <t>baseline</t>
         </is>
       </c>
       <c r="C54">
@@ -1833,7 +1833,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Followup</t>
+          <t>followup</t>
         </is>
       </c>
       <c r="C55">
@@ -1860,7 +1860,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Baseline</t>
+          <t>baseline</t>
         </is>
       </c>
       <c r="C56">
@@ -1887,7 +1887,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Followup</t>
+          <t>followup</t>
         </is>
       </c>
       <c r="C57">
@@ -1914,7 +1914,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Followup</t>
+          <t>followup</t>
         </is>
       </c>
       <c r="C58">
@@ -1941,7 +1941,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Baseline</t>
+          <t>baseline</t>
         </is>
       </c>
       <c r="C59">
@@ -1968,7 +1968,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Followup</t>
+          <t>followup</t>
         </is>
       </c>
       <c r="C60">
@@ -1995,7 +1995,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Followup</t>
+          <t>followup</t>
         </is>
       </c>
       <c r="C61">
@@ -2022,7 +2022,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Baseline</t>
+          <t>baseline</t>
         </is>
       </c>
       <c r="C62">
@@ -2049,7 +2049,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Followup</t>
+          <t>followup</t>
         </is>
       </c>
       <c r="C63">
@@ -2076,7 +2076,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Baseline</t>
+          <t>baseline</t>
         </is>
       </c>
       <c r="C64">
@@ -2103,7 +2103,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Baseline</t>
+          <t>baseline</t>
         </is>
       </c>
       <c r="C65">
@@ -2130,7 +2130,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Followup</t>
+          <t>followup</t>
         </is>
       </c>
       <c r="C66">
@@ -2157,7 +2157,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Baseline</t>
+          <t>baseline</t>
         </is>
       </c>
       <c r="C67">
@@ -2184,7 +2184,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Baseline</t>
+          <t>baseline</t>
         </is>
       </c>
       <c r="C68">
@@ -2211,7 +2211,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Followup</t>
+          <t>followup</t>
         </is>
       </c>
       <c r="C69">
@@ -2238,7 +2238,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Baseline</t>
+          <t>baseline</t>
         </is>
       </c>
       <c r="C70">
@@ -2265,7 +2265,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Followup</t>
+          <t>followup</t>
         </is>
       </c>
       <c r="C71">
